--- a/Dataset/OAIZIB/CartiMorph_dataset3.xlsx
+++ b/Dataset/OAIZIB/CartiMorph_dataset3.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Documents/GitHub_YongchengYAO/CartiMorph/Dataset/OAIZIB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E989810E-A76E-8A42-BDAB-78AA4E787E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA4768D-25CE-9348-BFF7-97076EB06A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{8ED9A692-8A9A-644C-B487-B94A75131080}"/>
+    <workbookView xWindow="3540" yWindow="1320" windowWidth="26700" windowHeight="16940" xr2:uid="{8ED9A692-8A9A-644C-B487-B94A75131080}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
